--- a/InverseKinematicsWorksheetExample (3) (1).xlsx
+++ b/InverseKinematicsWorksheetExample (3) (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaonengquan/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBFEC87-A896-554B-8870-43E700DEC54C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB21F0E-71D7-724B-BD24-BB6739758D2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>MeARM Inverse Kinematics Worksheet</t>
   </si>
@@ -131,12 +131,6 @@
   </si>
   <si>
     <t>5. Figure out the equation for what angle you need to ask the servo to move to, for it to move to the *measured* location. (Hint: this should require only simple arithmetic, i.e. addition/subtraction)</t>
-  </si>
-  <si>
-    <t>impossible</t>
-  </si>
-  <si>
-    <t>96(not acc)</t>
   </si>
 </sst>
 </file>
@@ -621,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G12" zoomScale="150" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -790,46 +784,47 @@
         <v>30</v>
       </c>
       <c r="B15" s="9">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C15" s="10">
         <f>A15-B15</f>
-        <v>-47</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>34</v>
+        <v>-50</v>
+      </c>
+      <c r="D15" s="10">
+        <f>(81/SIN(RADIANS(L15)))*SIN(RADIANS(B15))</f>
+        <v>104.13159276921937</v>
       </c>
       <c r="E15" s="10">
-        <f>180-B15-F15</f>
-        <v>48</v>
+        <f>J15</f>
+        <v>45</v>
       </c>
       <c r="F15" s="10">
+        <f>180-E15-B15</f>
         <v>55</v>
       </c>
-      <c r="G15" s="20" t="s">
-        <v>33</v>
-      </c>
+      <c r="G15" s="20"/>
       <c r="H15" s="11"/>
       <c r="I15" s="8">
         <v>135</v>
       </c>
       <c r="J15" s="9">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K15" s="10">
         <f>I15-J15</f>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L15" s="10">
         <f>(180-B15)/2</f>
-        <v>51.5</v>
+        <v>50</v>
       </c>
       <c r="M15" s="10">
-        <v>-1.5</v>
+        <f>90-L15-N15</f>
+        <v>-5</v>
       </c>
       <c r="N15" s="10">
         <f>90-J15</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="O15" s="20"/>
       <c r="P15" s="11"/>
@@ -841,19 +836,23 @@
         <v>30</v>
       </c>
       <c r="B16" s="9">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C16" s="10">
         <f t="shared" ref="C16:C33" si="0">A16-B16</f>
-        <v>-33</v>
-      </c>
-      <c r="D16" s="10"/>
+        <v>-35</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" ref="D16:D32" si="1">(81/SIN(RADIANS(L16)))*SIN(RADIANS(B16))</f>
+        <v>87.042536552185453</v>
+      </c>
       <c r="E16" s="10">
-        <f t="shared" ref="E16:E33" si="1">180-B16-F16</f>
-        <v>52</v>
+        <f t="shared" ref="E16:E33" si="2">J16</f>
+        <v>60</v>
       </c>
       <c r="F16" s="10">
-        <v>65</v>
+        <f>180-E16-B16</f>
+        <v>55</v>
       </c>
       <c r="G16" s="20"/>
       <c r="H16" s="11"/>
@@ -861,20 +860,23 @@
         <v>120</v>
       </c>
       <c r="J16" s="9">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K16" s="10">
-        <f t="shared" ref="K16:K33" si="2">I16-J16</f>
-        <v>57</v>
+        <f t="shared" ref="K16:K33" si="3">I16-J16</f>
+        <v>60</v>
       </c>
       <c r="L16" s="10">
-        <f t="shared" ref="L16:L33" si="3">(180-B16)/2</f>
-        <v>58.5</v>
-      </c>
-      <c r="M16" s="10"/>
+        <f t="shared" ref="L16:L33" si="4">(180-B16)/2</f>
+        <v>57.5</v>
+      </c>
+      <c r="M16" s="10">
+        <f t="shared" ref="M16:M33" si="5">90-L16-N16</f>
+        <v>2.5</v>
+      </c>
       <c r="N16" s="10">
-        <f t="shared" ref="N16:N33" si="4">90-J16</f>
-        <v>27</v>
+        <f t="shared" ref="N16:N33" si="6">90-J16</f>
+        <v>30</v>
       </c>
       <c r="O16" s="20"/>
       <c r="P16" s="11"/>
@@ -885,35 +887,48 @@
       <c r="A17" s="8">
         <v>30</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="9">
+        <v>50</v>
+      </c>
       <c r="C17" s="10">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="D17" s="10"/>
+        <v>-20</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="1"/>
+        <v>68.464158401993302</v>
+      </c>
       <c r="E17" s="10">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="F17" s="10"/>
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="F17" s="10">
+        <f>180-E17-B17</f>
+        <v>55</v>
+      </c>
       <c r="G17" s="20"/>
       <c r="H17" s="11"/>
       <c r="I17" s="8">
         <v>105</v>
       </c>
-      <c r="J17" s="9"/>
+      <c r="J17" s="9">
+        <v>75</v>
+      </c>
       <c r="K17" s="10">
-        <f t="shared" si="2"/>
-        <v>105</v>
+        <f t="shared" si="3"/>
+        <v>30</v>
       </c>
       <c r="L17" s="10">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="M17" s="10"/>
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="M17" s="10">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="N17" s="10">
-        <f t="shared" si="4"/>
-        <v>90</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="O17" s="20"/>
       <c r="P17" s="11"/>
@@ -924,35 +939,48 @@
       <c r="A18" s="8">
         <v>30</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="9">
+        <v>35</v>
+      </c>
       <c r="C18" s="10">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="D18" s="10"/>
+        <v>-5</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" si="1"/>
+        <v>48.714339519692238</v>
+      </c>
       <c r="E18" s="10">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="F18" s="10"/>
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" ref="F16:F33" si="7">180-E18-B18</f>
+        <v>55</v>
+      </c>
       <c r="G18" s="20"/>
       <c r="H18" s="11"/>
       <c r="I18" s="8">
         <v>90</v>
       </c>
-      <c r="J18" s="9"/>
+      <c r="J18" s="9">
+        <v>90</v>
+      </c>
       <c r="K18" s="10">
-        <f t="shared" si="2"/>
-        <v>90</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="L18" s="10">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="M18" s="10"/>
+        <f t="shared" si="4"/>
+        <v>72.5</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="5"/>
+        <v>17.5</v>
+      </c>
       <c r="N18" s="10">
-        <f t="shared" si="4"/>
-        <v>90</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="O18" s="20"/>
       <c r="P18" s="11"/>
@@ -962,33 +990,18 @@
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C19" s="10"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="10">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
+      <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="20"/>
       <c r="H19" s="11"/>
       <c r="I19" s="8"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="10">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
       <c r="M19" s="10"/>
-      <c r="N19" s="10">
-        <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
+      <c r="N19" s="10"/>
       <c r="O19" s="20"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
@@ -998,35 +1011,48 @@
       <c r="A20" s="8">
         <v>45</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="9">
+        <v>95</v>
+      </c>
       <c r="C20" s="10">
         <f t="shared" si="0"/>
+        <v>-50</v>
+      </c>
+      <c r="D20" s="10">
+        <f t="shared" si="1"/>
+        <v>119.4389285632401</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="F20" s="10"/>
       <c r="G20" s="20"/>
       <c r="H20" s="11"/>
       <c r="I20" s="8">
         <v>135</v>
       </c>
-      <c r="J20" s="9"/>
+      <c r="J20" s="9">
+        <v>40</v>
+      </c>
       <c r="K20" s="10">
-        <f t="shared" si="2"/>
-        <v>135</v>
+        <f t="shared" si="3"/>
+        <v>95</v>
       </c>
       <c r="L20" s="10">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="M20" s="10"/>
+        <f t="shared" si="4"/>
+        <v>42.5</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="5"/>
+        <v>-2.5</v>
+      </c>
       <c r="N20" s="10">
-        <f t="shared" si="4"/>
-        <v>90</v>
+        <f t="shared" si="6"/>
+        <v>50</v>
       </c>
       <c r="O20" s="20"/>
       <c r="P20" s="11"/>
@@ -1037,35 +1063,48 @@
       <c r="A21" s="8">
         <v>45</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="9">
+        <v>73</v>
+      </c>
       <c r="C21" s="10">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="D21" s="10"/>
+        <v>-28</v>
+      </c>
+      <c r="D21" s="10">
+        <f t="shared" si="1"/>
+        <v>96.361291453717286</v>
+      </c>
       <c r="E21" s="10">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="F21" s="10"/>
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
       <c r="G21" s="20"/>
       <c r="H21" s="11"/>
       <c r="I21" s="8">
         <v>120</v>
       </c>
-      <c r="J21" s="9"/>
+      <c r="J21" s="9">
+        <v>57</v>
+      </c>
       <c r="K21" s="10">
-        <f t="shared" si="2"/>
-        <v>120</v>
+        <f t="shared" si="3"/>
+        <v>63</v>
       </c>
       <c r="L21" s="10">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="M21" s="10"/>
+        <f t="shared" si="4"/>
+        <v>53.5</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" si="5"/>
+        <v>3.5</v>
+      </c>
       <c r="N21" s="10">
-        <f t="shared" si="4"/>
-        <v>90</v>
+        <f t="shared" si="6"/>
+        <v>33</v>
       </c>
       <c r="O21" s="20"/>
       <c r="P21" s="11"/>
@@ -1076,35 +1115,48 @@
       <c r="A22" s="8">
         <v>45</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="9">
+        <v>60</v>
+      </c>
       <c r="C22" s="10">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="D22" s="10"/>
+        <v>-15</v>
+      </c>
+      <c r="D22" s="10">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
       <c r="E22" s="10">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="F22" s="10"/>
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
       <c r="G22" s="20"/>
       <c r="H22" s="11"/>
       <c r="I22" s="8">
         <v>105</v>
       </c>
-      <c r="J22" s="9"/>
+      <c r="J22" s="9">
+        <v>70</v>
+      </c>
       <c r="K22" s="10">
-        <f t="shared" si="2"/>
-        <v>105</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="L22" s="10">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="M22" s="10"/>
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="M22" s="10">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="N22" s="10">
-        <f t="shared" si="4"/>
-        <v>90</v>
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="O22" s="20"/>
       <c r="P22" s="11"/>
@@ -1115,35 +1167,48 @@
       <c r="A23" s="8">
         <v>45</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="9">
+        <v>50</v>
+      </c>
       <c r="C23" s="10">
         <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="D23" s="10">
+        <f t="shared" si="1"/>
+        <v>68.464158401993302</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="F23" s="10"/>
       <c r="G23" s="20"/>
       <c r="H23" s="11"/>
       <c r="I23" s="8">
         <v>90</v>
       </c>
-      <c r="J23" s="9"/>
+      <c r="J23" s="9">
+        <v>85</v>
+      </c>
       <c r="K23" s="10">
-        <f t="shared" si="2"/>
-        <v>90</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="L23" s="10">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="M23" s="10"/>
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="M23" s="10">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
       <c r="N23" s="10">
-        <f t="shared" si="4"/>
-        <v>90</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="O23" s="20"/>
       <c r="P23" s="11"/>
@@ -1153,33 +1218,18 @@
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C24" s="10"/>
       <c r="D24" s="10"/>
-      <c r="E24" s="10">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
+      <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="20"/>
       <c r="H24" s="11"/>
       <c r="I24" s="8"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="10">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
       <c r="M24" s="10"/>
-      <c r="N24" s="10">
-        <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
+      <c r="N24" s="10"/>
       <c r="O24" s="20"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
@@ -1189,35 +1239,48 @@
       <c r="A25" s="8">
         <v>60</v>
       </c>
-      <c r="B25" s="9"/>
+      <c r="B25" s="9">
+        <v>105</v>
+      </c>
       <c r="C25" s="10">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="D25" s="10"/>
+        <v>-45</v>
+      </c>
+      <c r="D25" s="10">
+        <f>(81/SIN(RADIANS(L25)))*SIN(RADIANS(B25))</f>
+        <v>128.52324112718009</v>
+      </c>
       <c r="E25" s="10">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="F25" s="10"/>
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
       <c r="G25" s="20"/>
       <c r="H25" s="11"/>
       <c r="I25" s="8">
         <v>135</v>
       </c>
-      <c r="J25" s="9"/>
+      <c r="J25" s="9">
+        <v>40</v>
+      </c>
       <c r="K25" s="10">
-        <f t="shared" si="2"/>
-        <v>135</v>
+        <f t="shared" si="3"/>
+        <v>95</v>
       </c>
       <c r="L25" s="10">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="M25" s="10"/>
+        <f t="shared" si="4"/>
+        <v>37.5</v>
+      </c>
+      <c r="M25" s="10">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
       <c r="N25" s="10">
-        <f t="shared" si="4"/>
-        <v>90</v>
+        <f t="shared" si="6"/>
+        <v>50</v>
       </c>
       <c r="O25" s="20"/>
       <c r="P25" s="11"/>
@@ -1228,35 +1291,48 @@
       <c r="A26" s="8">
         <v>60</v>
       </c>
-      <c r="B26" s="9"/>
+      <c r="B26" s="9">
+        <v>85</v>
+      </c>
       <c r="C26" s="10">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="D26" s="10"/>
+        <v>-25</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="1"/>
+        <v>109.44561363373695</v>
+      </c>
       <c r="E26" s="10">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="F26" s="10"/>
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
       <c r="G26" s="20"/>
       <c r="H26" s="11"/>
       <c r="I26" s="8">
         <v>120</v>
       </c>
-      <c r="J26" s="9"/>
+      <c r="J26" s="9">
+        <v>55</v>
+      </c>
       <c r="K26" s="10">
-        <f t="shared" si="2"/>
-        <v>120</v>
+        <f t="shared" si="3"/>
+        <v>65</v>
       </c>
       <c r="L26" s="10">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="M26" s="10"/>
+        <f t="shared" si="4"/>
+        <v>47.5</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="5"/>
+        <v>7.5</v>
+      </c>
       <c r="N26" s="10">
-        <f t="shared" si="4"/>
-        <v>90</v>
+        <f t="shared" si="6"/>
+        <v>35</v>
       </c>
       <c r="O26" s="20"/>
       <c r="P26" s="11"/>
@@ -1267,35 +1343,48 @@
       <c r="A27" s="8">
         <v>60</v>
       </c>
-      <c r="B27" s="9"/>
+      <c r="B27" s="9">
+        <v>75</v>
+      </c>
       <c r="C27" s="10">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="D27" s="10"/>
+        <v>-15</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="1"/>
+        <v>98.619351499412744</v>
+      </c>
       <c r="E27" s="10">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="F27" s="10"/>
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
       <c r="G27" s="20"/>
       <c r="H27" s="11"/>
       <c r="I27" s="8">
         <v>105</v>
       </c>
-      <c r="J27" s="9"/>
+      <c r="J27" s="9">
+        <v>70</v>
+      </c>
       <c r="K27" s="10">
-        <f t="shared" si="2"/>
-        <v>105</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="L27" s="10">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="M27" s="10"/>
+        <f t="shared" si="4"/>
+        <v>52.5</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="5"/>
+        <v>17.5</v>
+      </c>
       <c r="N27" s="10">
-        <f t="shared" si="4"/>
-        <v>90</v>
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="O27" s="20"/>
       <c r="P27" s="11"/>
@@ -1306,35 +1395,48 @@
       <c r="A28" s="8">
         <v>60</v>
       </c>
-      <c r="B28" s="9"/>
+      <c r="B28" s="9">
+        <v>65</v>
+      </c>
       <c r="C28" s="10">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="D28" s="10"/>
+        <v>-5</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" si="1"/>
+        <v>87.042536552185453</v>
+      </c>
       <c r="E28" s="10">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="F28" s="10"/>
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
       <c r="G28" s="20"/>
       <c r="H28" s="11"/>
       <c r="I28" s="8">
         <v>90</v>
       </c>
-      <c r="J28" s="9"/>
+      <c r="J28" s="9">
+        <v>85</v>
+      </c>
       <c r="K28" s="10">
-        <f t="shared" si="2"/>
-        <v>90</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="L28" s="10">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="M28" s="10"/>
+        <f t="shared" si="4"/>
+        <v>57.5</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" si="5"/>
+        <v>27.5</v>
+      </c>
       <c r="N28" s="10">
-        <f t="shared" si="4"/>
-        <v>90</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="O28" s="20"/>
       <c r="P28" s="11"/>
@@ -1344,33 +1446,18 @@
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
-      <c r="C29" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C29" s="10"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="10">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
+      <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="20"/>
       <c r="H29" s="11"/>
       <c r="I29" s="8"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="10">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
       <c r="M29" s="10"/>
-      <c r="N29" s="10">
-        <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
+      <c r="N29" s="10"/>
       <c r="O29" s="20"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
@@ -1380,35 +1467,48 @@
       <c r="A30" s="8">
         <v>75</v>
       </c>
-      <c r="B30" s="9"/>
+      <c r="B30" s="9">
+        <v>120</v>
+      </c>
       <c r="C30" s="10">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="D30" s="10"/>
+        <v>-45</v>
+      </c>
+      <c r="D30" s="10">
+        <f t="shared" si="1"/>
+        <v>140.29611541307909</v>
+      </c>
       <c r="E30" s="10">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="F30" s="10"/>
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="G30" s="20"/>
       <c r="H30" s="11"/>
       <c r="I30" s="8">
         <v>135</v>
       </c>
-      <c r="J30" s="9"/>
+      <c r="J30" s="9">
+        <v>40</v>
+      </c>
       <c r="K30" s="10">
-        <f t="shared" si="2"/>
-        <v>135</v>
+        <f t="shared" si="3"/>
+        <v>95</v>
       </c>
       <c r="L30" s="10">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="M30" s="10"/>
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="M30" s="10">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
       <c r="N30" s="10">
-        <f t="shared" si="4"/>
-        <v>90</v>
+        <f t="shared" si="6"/>
+        <v>50</v>
       </c>
       <c r="O30" s="20"/>
       <c r="P30" s="11"/>
@@ -1419,35 +1519,48 @@
       <c r="A31" s="8">
         <v>75</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31" s="9">
+        <v>103</v>
+      </c>
       <c r="C31" s="10">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="D31" s="10"/>
+        <v>-28</v>
+      </c>
+      <c r="D31" s="10">
+        <f t="shared" si="1"/>
+        <v>126.78252141009105</v>
+      </c>
       <c r="E31" s="10">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="F31" s="10"/>
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="F31" s="10">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
       <c r="G31" s="20"/>
       <c r="H31" s="11"/>
       <c r="I31" s="8">
         <v>120</v>
       </c>
-      <c r="J31" s="9"/>
+      <c r="J31" s="9">
+        <v>56</v>
+      </c>
       <c r="K31" s="10">
-        <f t="shared" si="2"/>
-        <v>120</v>
+        <f t="shared" si="3"/>
+        <v>64</v>
       </c>
       <c r="L31" s="10">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="M31" s="10"/>
+        <f t="shared" si="4"/>
+        <v>38.5</v>
+      </c>
+      <c r="M31" s="10">
+        <f>90-L31-N31</f>
+        <v>17.5</v>
+      </c>
       <c r="N31" s="10">
-        <f t="shared" si="4"/>
-        <v>90</v>
+        <f t="shared" si="6"/>
+        <v>34</v>
       </c>
       <c r="O31" s="20"/>
       <c r="P31" s="11"/>
@@ -1458,35 +1571,48 @@
       <c r="A32" s="8">
         <v>75</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="9">
+        <v>87</v>
+      </c>
       <c r="C32" s="10">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="D32" s="10"/>
+        <v>-12</v>
+      </c>
+      <c r="D32" s="10">
+        <f t="shared" si="1"/>
+        <v>111.51344126238814</v>
+      </c>
       <c r="E32" s="10">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="F32" s="10"/>
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="F32" s="10">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
       <c r="G32" s="20"/>
       <c r="H32" s="11"/>
       <c r="I32" s="8">
         <v>105</v>
       </c>
-      <c r="J32" s="9"/>
+      <c r="J32" s="9">
+        <v>70</v>
+      </c>
       <c r="K32" s="10">
-        <f t="shared" si="2"/>
-        <v>105</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
       </c>
       <c r="L32" s="10">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="M32" s="10"/>
+        <f t="shared" si="4"/>
+        <v>46.5</v>
+      </c>
+      <c r="M32" s="10">
+        <f t="shared" si="5"/>
+        <v>23.5</v>
+      </c>
       <c r="N32" s="10">
-        <f t="shared" si="4"/>
-        <v>90</v>
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="O32" s="20"/>
       <c r="P32" s="11"/>
@@ -1497,35 +1623,48 @@
       <c r="A33" s="8">
         <v>75</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="9">
+        <v>77</v>
+      </c>
       <c r="C33" s="10">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="D33" s="10"/>
+        <v>-2</v>
+      </c>
+      <c r="D33" s="10">
+        <f>(81/SIN(RADIANS(L33)))*SIN(RADIANS(B33))</f>
+        <v>100.84737113529437</v>
+      </c>
       <c r="E33" s="10">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="F33" s="10"/>
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="F33" s="10">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
       <c r="G33" s="20"/>
       <c r="H33" s="11"/>
       <c r="I33" s="8">
         <v>90</v>
       </c>
-      <c r="J33" s="9"/>
+      <c r="J33" s="9">
+        <v>85</v>
+      </c>
       <c r="K33" s="10">
-        <f t="shared" si="2"/>
-        <v>90</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="L33" s="10">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="M33" s="10"/>
+        <f t="shared" si="4"/>
+        <v>51.5</v>
+      </c>
+      <c r="M33" s="10">
+        <f t="shared" si="5"/>
+        <v>33.5</v>
+      </c>
       <c r="N33" s="10">
-        <f t="shared" si="4"/>
-        <v>90</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="O33" s="20"/>
       <c r="P33" s="11"/>

--- a/InverseKinematicsWorksheetExample (3) (1).xlsx
+++ b/InverseKinematicsWorksheetExample (3) (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaonengquan/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB21F0E-71D7-724B-BD24-BB6739758D2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719A3044-E21D-FC4B-A898-B16F1080AAC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>MeARM Inverse Kinematics Worksheet</t>
   </si>
@@ -131,6 +131,16 @@
   </si>
   <si>
     <t>5. Figure out the equation for what angle you need to ask the servo to move to, for it to move to the *measured* location. (Hint: this should require only simple arithmetic, i.e. addition/subtraction)</t>
+  </si>
+  <si>
+    <t>Left Angle Measured ( W )</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Left Angle To Request (ATR)
+ to move to Left Requested</t>
   </si>
 </sst>
 </file>
@@ -613,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="180" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -787,8 +797,8 @@
         <v>80</v>
       </c>
       <c r="C15" s="10">
-        <f>A15-B15</f>
-        <v>-50</v>
+        <f>A15-F15</f>
+        <v>-25</v>
       </c>
       <c r="D15" s="10">
         <f>(81/SIN(RADIANS(L15)))*SIN(RADIANS(B15))</f>
@@ -802,7 +812,9 @@
         <f>180-E15-B15</f>
         <v>55</v>
       </c>
-      <c r="G15" s="20"/>
+      <c r="G15" s="20">
+        <v>5</v>
+      </c>
       <c r="H15" s="11"/>
       <c r="I15" s="8">
         <v>135</v>
@@ -839,8 +851,8 @@
         <v>65</v>
       </c>
       <c r="C16" s="10">
-        <f t="shared" ref="C16:C33" si="0">A16-B16</f>
-        <v>-35</v>
+        <f t="shared" ref="C16:C33" si="0">A16-F16</f>
+        <v>-25</v>
       </c>
       <c r="D16" s="10">
         <f t="shared" ref="D16:D32" si="1">(81/SIN(RADIANS(L16)))*SIN(RADIANS(B16))</f>
@@ -854,7 +866,9 @@
         <f>180-E16-B16</f>
         <v>55</v>
       </c>
-      <c r="G16" s="20"/>
+      <c r="G16" s="20">
+        <v>5</v>
+      </c>
       <c r="H16" s="11"/>
       <c r="I16" s="8">
         <v>120</v>
@@ -892,7 +906,7 @@
       </c>
       <c r="C17" s="10">
         <f t="shared" si="0"/>
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="D17" s="10">
         <f t="shared" si="1"/>
@@ -906,7 +920,9 @@
         <f>180-E17-B17</f>
         <v>55</v>
       </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="20">
+        <v>5</v>
+      </c>
       <c r="H17" s="11"/>
       <c r="I17" s="8">
         <v>105</v>
@@ -944,7 +960,7 @@
       </c>
       <c r="C18" s="10">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>-25</v>
       </c>
       <c r="D18" s="10">
         <f t="shared" si="1"/>
@@ -958,7 +974,9 @@
         <f t="shared" ref="F16:F33" si="7">180-E18-B18</f>
         <v>55</v>
       </c>
-      <c r="G18" s="20"/>
+      <c r="G18" s="20">
+        <v>5</v>
+      </c>
       <c r="H18" s="11"/>
       <c r="I18" s="8">
         <v>90</v>
@@ -1012,19 +1030,19 @@
         <v>45</v>
       </c>
       <c r="B20" s="9">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C20" s="10">
         <f t="shared" si="0"/>
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="D20" s="10">
         <f t="shared" si="1"/>
-        <v>119.4389285632401</v>
+        <v>114.55129855222071</v>
       </c>
       <c r="E20" s="10">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F20" s="10">
         <f t="shared" si="7"/>
@@ -1036,23 +1054,23 @@
         <v>135</v>
       </c>
       <c r="J20" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K20" s="10">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L20" s="10">
         <f t="shared" si="4"/>
-        <v>42.5</v>
+        <v>45</v>
       </c>
       <c r="M20" s="10">
         <f t="shared" si="5"/>
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="N20" s="10">
         <f t="shared" si="6"/>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="O20" s="20"/>
       <c r="P20" s="11"/>
@@ -1068,7 +1086,7 @@
       </c>
       <c r="C21" s="10">
         <f t="shared" si="0"/>
-        <v>-28</v>
+        <v>-5</v>
       </c>
       <c r="D21" s="10">
         <f t="shared" si="1"/>
@@ -1120,7 +1138,7 @@
       </c>
       <c r="C22" s="10">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="D22" s="10">
         <f t="shared" si="1"/>
@@ -1172,7 +1190,7 @@
       </c>
       <c r="C23" s="10">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D23" s="10">
         <f t="shared" si="1"/>
@@ -1244,7 +1262,7 @@
       </c>
       <c r="C25" s="10">
         <f t="shared" si="0"/>
-        <v>-45</v>
+        <v>25</v>
       </c>
       <c r="D25" s="10">
         <f>(81/SIN(RADIANS(L25)))*SIN(RADIANS(B25))</f>
@@ -1296,7 +1314,7 @@
       </c>
       <c r="C26" s="10">
         <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>20</v>
       </c>
       <c r="D26" s="10">
         <f t="shared" si="1"/>
@@ -1348,7 +1366,7 @@
       </c>
       <c r="C27" s="10">
         <f t="shared" si="0"/>
-        <v>-15</v>
+        <v>25</v>
       </c>
       <c r="D27" s="10">
         <f t="shared" si="1"/>
@@ -1400,7 +1418,7 @@
       </c>
       <c r="C28" s="10">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>30</v>
       </c>
       <c r="D28" s="10">
         <f t="shared" si="1"/>
@@ -1472,7 +1490,7 @@
       </c>
       <c r="C30" s="10">
         <f t="shared" si="0"/>
-        <v>-45</v>
+        <v>55</v>
       </c>
       <c r="D30" s="10">
         <f t="shared" si="1"/>
@@ -1524,7 +1542,7 @@
       </c>
       <c r="C31" s="10">
         <f t="shared" si="0"/>
-        <v>-28</v>
+        <v>54</v>
       </c>
       <c r="D31" s="10">
         <f t="shared" si="1"/>
@@ -1576,7 +1594,7 @@
       </c>
       <c r="C32" s="10">
         <f t="shared" si="0"/>
-        <v>-12</v>
+        <v>52</v>
       </c>
       <c r="D32" s="10">
         <f t="shared" si="1"/>
@@ -1628,7 +1646,7 @@
       </c>
       <c r="C33" s="10">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>57</v>
       </c>
       <c r="D33" s="10">
         <f>(81/SIN(RADIANS(L33)))*SIN(RADIANS(B33))</f>
@@ -1690,6 +1708,998 @@
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="41" spans="1:18" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M41" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N41" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R41" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="8">
+        <v>30</v>
+      </c>
+      <c r="B42" s="9">
+        <v>60</v>
+      </c>
+      <c r="C42" s="10">
+        <f>A42-B42</f>
+        <v>-30</v>
+      </c>
+      <c r="D42" s="10">
+        <f>(81/SIN(RADIANS(L42)))*SIN(RADIANS(B42))</f>
+        <v>81</v>
+      </c>
+      <c r="E42" s="10">
+        <f>J42</f>
+        <v>45</v>
+      </c>
+      <c r="F42" s="10">
+        <f>180-E42-B42</f>
+        <v>75</v>
+      </c>
+      <c r="G42" s="20">
+        <f>A42+C42</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="8">
+        <v>135</v>
+      </c>
+      <c r="J42" s="9">
+        <v>45</v>
+      </c>
+      <c r="K42" s="10">
+        <f>I42-J42</f>
+        <v>90</v>
+      </c>
+      <c r="L42" s="10">
+        <f>(180-B42)/2</f>
+        <v>60</v>
+      </c>
+      <c r="M42" s="10">
+        <f>90-L42-N42</f>
+        <v>-15</v>
+      </c>
+      <c r="N42" s="10">
+        <f>90-J42</f>
+        <v>45</v>
+      </c>
+      <c r="O42" s="20"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="8">
+        <v>30</v>
+      </c>
+      <c r="B43" s="9">
+        <v>60</v>
+      </c>
+      <c r="C43" s="10">
+        <f t="shared" ref="C43:C60" si="8">A43-B43</f>
+        <v>-30</v>
+      </c>
+      <c r="D43" s="10">
+        <f t="shared" ref="D43:D59" si="9">(81/SIN(RADIANS(L43)))*SIN(RADIANS(B43))</f>
+        <v>81</v>
+      </c>
+      <c r="E43" s="10">
+        <f t="shared" ref="E43:E60" si="10">J43</f>
+        <v>60</v>
+      </c>
+      <c r="F43" s="10">
+        <f t="shared" ref="F43:F60" si="11">180-E43-B43</f>
+        <v>60</v>
+      </c>
+      <c r="G43" s="20">
+        <f t="shared" ref="G43:G60" si="12">A43+C43</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="8">
+        <v>120</v>
+      </c>
+      <c r="J43" s="9">
+        <v>60</v>
+      </c>
+      <c r="K43" s="10">
+        <f t="shared" ref="K43:K60" si="13">I43-J43</f>
+        <v>60</v>
+      </c>
+      <c r="L43" s="10">
+        <f t="shared" ref="L43:L60" si="14">(180-B43)/2</f>
+        <v>60</v>
+      </c>
+      <c r="M43" s="10">
+        <f t="shared" ref="M43:M60" si="15">90-L43-N43</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="10">
+        <f t="shared" ref="N43:N60" si="16">90-J43</f>
+        <v>30</v>
+      </c>
+      <c r="O43" s="20"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="8">
+        <v>30</v>
+      </c>
+      <c r="B44" s="9">
+        <v>60</v>
+      </c>
+      <c r="C44" s="10">
+        <f t="shared" si="8"/>
+        <v>-30</v>
+      </c>
+      <c r="D44" s="10">
+        <f t="shared" si="9"/>
+        <v>81</v>
+      </c>
+      <c r="E44" s="10">
+        <f t="shared" si="10"/>
+        <v>75</v>
+      </c>
+      <c r="F44" s="10">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="G44" s="20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="11"/>
+      <c r="I44" s="8">
+        <v>105</v>
+      </c>
+      <c r="J44" s="9">
+        <v>75</v>
+      </c>
+      <c r="K44" s="10">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="L44" s="10">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="M44" s="10">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="N44" s="10">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="O44" s="20"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="8">
+        <v>30</v>
+      </c>
+      <c r="B45" s="9">
+        <v>60</v>
+      </c>
+      <c r="C45" s="10">
+        <f t="shared" si="8"/>
+        <v>-30</v>
+      </c>
+      <c r="D45" s="10">
+        <f t="shared" si="9"/>
+        <v>81</v>
+      </c>
+      <c r="E45" s="10">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="F45" s="10">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="G45" s="20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="11"/>
+      <c r="I45" s="8">
+        <v>90</v>
+      </c>
+      <c r="J45" s="9">
+        <v>90</v>
+      </c>
+      <c r="K45" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="10">
+        <f t="shared" si="14"/>
+        <v>60</v>
+      </c>
+      <c r="M45" s="10">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="N45" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="20"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="8">
+        <v>45</v>
+      </c>
+      <c r="B47" s="9">
+        <v>45</v>
+      </c>
+      <c r="C47" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D47" s="10">
+        <f t="shared" ref="D47:D60" si="17">(81/SIN(RADIANS(L47)))*SIN(RADIANS(B47))</f>
+        <v>61.994716043144535</v>
+      </c>
+      <c r="E47" s="10">
+        <f t="shared" ref="E47:E60" si="18">J47</f>
+        <v>45</v>
+      </c>
+      <c r="F47" s="10">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="G47" s="20">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="H47" s="11"/>
+      <c r="I47" s="8">
+        <v>135</v>
+      </c>
+      <c r="J47" s="9">
+        <v>45</v>
+      </c>
+      <c r="K47" s="10">
+        <f t="shared" ref="K47:K60" si="19">I47-J47</f>
+        <v>90</v>
+      </c>
+      <c r="L47" s="10">
+        <f t="shared" ref="L47:L60" si="20">(180-B47)/2</f>
+        <v>67.5</v>
+      </c>
+      <c r="M47" s="10">
+        <f t="shared" si="15"/>
+        <v>-22.5</v>
+      </c>
+      <c r="N47" s="10">
+        <f t="shared" ref="N47:N60" si="21">90-J47</f>
+        <v>45</v>
+      </c>
+      <c r="O47" s="20"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="8">
+        <v>45</v>
+      </c>
+      <c r="B48" s="9">
+        <v>45</v>
+      </c>
+      <c r="C48" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D48" s="10">
+        <f t="shared" si="17"/>
+        <v>61.994716043144535</v>
+      </c>
+      <c r="E48" s="10">
+        <f t="shared" si="18"/>
+        <v>57</v>
+      </c>
+      <c r="F48" s="10">
+        <f t="shared" si="11"/>
+        <v>78</v>
+      </c>
+      <c r="G48" s="20">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="H48" s="11"/>
+      <c r="I48" s="8">
+        <v>120</v>
+      </c>
+      <c r="J48" s="9">
+        <v>57</v>
+      </c>
+      <c r="K48" s="10">
+        <f t="shared" si="19"/>
+        <v>63</v>
+      </c>
+      <c r="L48" s="10">
+        <f t="shared" si="20"/>
+        <v>67.5</v>
+      </c>
+      <c r="M48" s="10">
+        <f t="shared" si="15"/>
+        <v>-10.5</v>
+      </c>
+      <c r="N48" s="10">
+        <f t="shared" si="21"/>
+        <v>33</v>
+      </c>
+      <c r="O48" s="20"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="8">
+        <v>45</v>
+      </c>
+      <c r="B49" s="9">
+        <v>45</v>
+      </c>
+      <c r="C49" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D49" s="10">
+        <f t="shared" si="17"/>
+        <v>61.994716043144535</v>
+      </c>
+      <c r="E49" s="10">
+        <f t="shared" si="18"/>
+        <v>70</v>
+      </c>
+      <c r="F49" s="10">
+        <f t="shared" si="11"/>
+        <v>65</v>
+      </c>
+      <c r="G49" s="20">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="H49" s="11"/>
+      <c r="I49" s="8">
+        <v>105</v>
+      </c>
+      <c r="J49" s="9">
+        <v>70</v>
+      </c>
+      <c r="K49" s="10">
+        <f t="shared" si="19"/>
+        <v>35</v>
+      </c>
+      <c r="L49" s="10">
+        <f t="shared" si="20"/>
+        <v>67.5</v>
+      </c>
+      <c r="M49" s="10">
+        <f t="shared" si="15"/>
+        <v>2.5</v>
+      </c>
+      <c r="N49" s="10">
+        <f t="shared" si="21"/>
+        <v>20</v>
+      </c>
+      <c r="O49" s="20"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="8">
+        <v>45</v>
+      </c>
+      <c r="B50" s="9">
+        <v>45</v>
+      </c>
+      <c r="C50" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D50" s="10">
+        <f t="shared" si="17"/>
+        <v>61.994716043144535</v>
+      </c>
+      <c r="E50" s="10">
+        <f t="shared" si="18"/>
+        <v>85</v>
+      </c>
+      <c r="F50" s="10">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="G50" s="20">
+        <f t="shared" si="12"/>
+        <v>45</v>
+      </c>
+      <c r="H50" s="11"/>
+      <c r="I50" s="8">
+        <v>90</v>
+      </c>
+      <c r="J50" s="9">
+        <v>85</v>
+      </c>
+      <c r="K50" s="10">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="L50" s="10">
+        <f t="shared" si="20"/>
+        <v>67.5</v>
+      </c>
+      <c r="M50" s="10">
+        <f t="shared" si="15"/>
+        <v>17.5</v>
+      </c>
+      <c r="N50" s="10">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="O50" s="20"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="8">
+        <v>60</v>
+      </c>
+      <c r="B52" s="9">
+        <v>35</v>
+      </c>
+      <c r="C52" s="10">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="D52" s="10">
+        <f>(81/SIN(RADIANS(L52)))*SIN(RADIANS(B52))</f>
+        <v>48.714339519692238</v>
+      </c>
+      <c r="E52" s="10">
+        <f t="shared" ref="E52:E60" si="22">J52</f>
+        <v>40</v>
+      </c>
+      <c r="F52" s="10">
+        <f t="shared" si="11"/>
+        <v>105</v>
+      </c>
+      <c r="G52" s="20">
+        <f t="shared" si="12"/>
+        <v>85</v>
+      </c>
+      <c r="H52" s="11"/>
+      <c r="I52" s="8">
+        <v>135</v>
+      </c>
+      <c r="J52" s="9">
+        <v>40</v>
+      </c>
+      <c r="K52" s="10">
+        <f t="shared" ref="K52:K60" si="23">I52-J52</f>
+        <v>95</v>
+      </c>
+      <c r="L52" s="10">
+        <f t="shared" ref="L52:L60" si="24">(180-B52)/2</f>
+        <v>72.5</v>
+      </c>
+      <c r="M52" s="10">
+        <f t="shared" si="15"/>
+        <v>-32.5</v>
+      </c>
+      <c r="N52" s="10">
+        <f t="shared" ref="N52:N60" si="25">90-J52</f>
+        <v>50</v>
+      </c>
+      <c r="O52" s="20"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="8">
+        <v>60</v>
+      </c>
+      <c r="B53" s="9">
+        <v>35</v>
+      </c>
+      <c r="C53" s="10">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="D53" s="10">
+        <f t="shared" ref="D53:D60" si="26">(81/SIN(RADIANS(L53)))*SIN(RADIANS(B53))</f>
+        <v>48.714339519692238</v>
+      </c>
+      <c r="E53" s="10">
+        <f t="shared" si="22"/>
+        <v>55</v>
+      </c>
+      <c r="F53" s="10">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="G53" s="20">
+        <f t="shared" si="12"/>
+        <v>85</v>
+      </c>
+      <c r="H53" s="11"/>
+      <c r="I53" s="8">
+        <v>120</v>
+      </c>
+      <c r="J53" s="9">
+        <v>55</v>
+      </c>
+      <c r="K53" s="10">
+        <f t="shared" si="23"/>
+        <v>65</v>
+      </c>
+      <c r="L53" s="10">
+        <f t="shared" si="24"/>
+        <v>72.5</v>
+      </c>
+      <c r="M53" s="10">
+        <f t="shared" si="15"/>
+        <v>-17.5</v>
+      </c>
+      <c r="N53" s="10">
+        <f t="shared" si="25"/>
+        <v>35</v>
+      </c>
+      <c r="O53" s="20"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="8">
+        <v>60</v>
+      </c>
+      <c r="B54" s="9">
+        <v>35</v>
+      </c>
+      <c r="C54" s="10">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="D54" s="10">
+        <f t="shared" si="26"/>
+        <v>48.714339519692238</v>
+      </c>
+      <c r="E54" s="10">
+        <f t="shared" si="22"/>
+        <v>70</v>
+      </c>
+      <c r="F54" s="10">
+        <f t="shared" si="11"/>
+        <v>75</v>
+      </c>
+      <c r="G54" s="20">
+        <f t="shared" si="12"/>
+        <v>85</v>
+      </c>
+      <c r="H54" s="11"/>
+      <c r="I54" s="8">
+        <v>105</v>
+      </c>
+      <c r="J54" s="9">
+        <v>70</v>
+      </c>
+      <c r="K54" s="10">
+        <f t="shared" si="23"/>
+        <v>35</v>
+      </c>
+      <c r="L54" s="10">
+        <f t="shared" si="24"/>
+        <v>72.5</v>
+      </c>
+      <c r="M54" s="10">
+        <f t="shared" si="15"/>
+        <v>-2.5</v>
+      </c>
+      <c r="N54" s="10">
+        <f t="shared" si="25"/>
+        <v>20</v>
+      </c>
+      <c r="O54" s="20"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="8">
+        <v>60</v>
+      </c>
+      <c r="B55" s="9">
+        <v>35</v>
+      </c>
+      <c r="C55" s="10">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="D55" s="10">
+        <f t="shared" si="26"/>
+        <v>48.714339519692238</v>
+      </c>
+      <c r="E55" s="10">
+        <f t="shared" si="22"/>
+        <v>85</v>
+      </c>
+      <c r="F55" s="10">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="G55" s="20">
+        <f t="shared" si="12"/>
+        <v>85</v>
+      </c>
+      <c r="H55" s="11"/>
+      <c r="I55" s="8">
+        <v>90</v>
+      </c>
+      <c r="J55" s="9">
+        <v>85</v>
+      </c>
+      <c r="K55" s="10">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="L55" s="10">
+        <f t="shared" si="24"/>
+        <v>72.5</v>
+      </c>
+      <c r="M55" s="10">
+        <f t="shared" si="15"/>
+        <v>12.5</v>
+      </c>
+      <c r="N55" s="10">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="O55" s="20"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="8"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="8">
+        <v>75</v>
+      </c>
+      <c r="B57" s="9">
+        <v>15</v>
+      </c>
+      <c r="C57" s="10">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="D57" s="10">
+        <f t="shared" ref="D57:D60" si="27">(81/SIN(RADIANS(L57)))*SIN(RADIANS(B57))</f>
+        <v>21.145243139648358</v>
+      </c>
+      <c r="E57" s="10">
+        <f t="shared" ref="E57:E60" si="28">J57</f>
+        <v>40</v>
+      </c>
+      <c r="F57" s="10">
+        <f t="shared" si="11"/>
+        <v>125</v>
+      </c>
+      <c r="G57" s="20">
+        <f t="shared" si="12"/>
+        <v>135</v>
+      </c>
+      <c r="H57" s="11"/>
+      <c r="I57" s="8">
+        <v>135</v>
+      </c>
+      <c r="J57" s="9">
+        <v>40</v>
+      </c>
+      <c r="K57" s="10">
+        <f t="shared" ref="K57:K60" si="29">I57-J57</f>
+        <v>95</v>
+      </c>
+      <c r="L57" s="10">
+        <f t="shared" ref="L57:L60" si="30">(180-B57)/2</f>
+        <v>82.5</v>
+      </c>
+      <c r="M57" s="10">
+        <f t="shared" si="15"/>
+        <v>-42.5</v>
+      </c>
+      <c r="N57" s="10">
+        <f t="shared" ref="N57:N60" si="31">90-J57</f>
+        <v>50</v>
+      </c>
+      <c r="O57" s="20"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="8">
+        <v>75</v>
+      </c>
+      <c r="B58" s="9">
+        <v>15</v>
+      </c>
+      <c r="C58" s="10">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="D58" s="10">
+        <f t="shared" si="27"/>
+        <v>21.145243139648358</v>
+      </c>
+      <c r="E58" s="10">
+        <f t="shared" si="28"/>
+        <v>56</v>
+      </c>
+      <c r="F58" s="10">
+        <f t="shared" si="11"/>
+        <v>109</v>
+      </c>
+      <c r="G58" s="20">
+        <f t="shared" si="12"/>
+        <v>135</v>
+      </c>
+      <c r="H58" s="11"/>
+      <c r="I58" s="8">
+        <v>120</v>
+      </c>
+      <c r="J58" s="9">
+        <v>56</v>
+      </c>
+      <c r="K58" s="10">
+        <f t="shared" si="29"/>
+        <v>64</v>
+      </c>
+      <c r="L58" s="10">
+        <f t="shared" si="30"/>
+        <v>82.5</v>
+      </c>
+      <c r="M58" s="10">
+        <f>90-L58-N58</f>
+        <v>-26.5</v>
+      </c>
+      <c r="N58" s="10">
+        <f t="shared" si="31"/>
+        <v>34</v>
+      </c>
+      <c r="O58" s="20"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="8">
+        <v>75</v>
+      </c>
+      <c r="B59" s="9">
+        <v>15</v>
+      </c>
+      <c r="C59" s="10">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="D59" s="10">
+        <f t="shared" si="27"/>
+        <v>21.145243139648358</v>
+      </c>
+      <c r="E59" s="10">
+        <f t="shared" si="28"/>
+        <v>70</v>
+      </c>
+      <c r="F59" s="10">
+        <f t="shared" si="11"/>
+        <v>95</v>
+      </c>
+      <c r="G59" s="20">
+        <f t="shared" si="12"/>
+        <v>135</v>
+      </c>
+      <c r="H59" s="11"/>
+      <c r="I59" s="8">
+        <v>105</v>
+      </c>
+      <c r="J59" s="9">
+        <v>70</v>
+      </c>
+      <c r="K59" s="10">
+        <f t="shared" si="29"/>
+        <v>35</v>
+      </c>
+      <c r="L59" s="10">
+        <f t="shared" si="30"/>
+        <v>82.5</v>
+      </c>
+      <c r="M59" s="10">
+        <f t="shared" si="15"/>
+        <v>-12.5</v>
+      </c>
+      <c r="N59" s="10">
+        <f t="shared" si="31"/>
+        <v>20</v>
+      </c>
+      <c r="O59" s="20"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="8">
+        <v>75</v>
+      </c>
+      <c r="B60" s="9">
+        <v>15</v>
+      </c>
+      <c r="C60" s="10">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="D60" s="10">
+        <f>(81/SIN(RADIANS(L60)))*SIN(RADIANS(B60))</f>
+        <v>21.145243139648358</v>
+      </c>
+      <c r="E60" s="10">
+        <f t="shared" si="28"/>
+        <v>85</v>
+      </c>
+      <c r="F60" s="10">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="G60" s="20">
+        <f t="shared" si="12"/>
+        <v>135</v>
+      </c>
+      <c r="H60" s="11"/>
+      <c r="I60" s="8">
+        <v>90</v>
+      </c>
+      <c r="J60" s="9">
+        <v>85</v>
+      </c>
+      <c r="K60" s="10">
+        <f t="shared" si="29"/>
+        <v>5</v>
+      </c>
+      <c r="L60" s="10">
+        <f t="shared" si="30"/>
+        <v>82.5</v>
+      </c>
+      <c r="M60" s="10">
+        <f t="shared" si="15"/>
+        <v>2.5</v>
+      </c>
+      <c r="N60" s="10">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="O60" s="20"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
